--- a/ALL_DATA/DATA_ARCHIVING/eelgrass_community_2017/eelgrass_community_2017_metadata.xlsx
+++ b/ALL_DATA/DATA_ARCHIVING/eelgrass_community_2017/eelgrass_community_2017_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiff/Desktop/R Studio/APECS-master-repos/ALL_DATA/DATA_ARCHIVING/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiff/Library/Containers/com.microsoft.Excel/Data/Desktop/R Studio/APECS-master-repos/ALL_DATA/DATA_ARCHIVING/eelgrass_community_2017/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8D3A4AE-5CCF-A746-9566-33AF7F2602CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79C14B2-9191-8D41-A317-81DEE5A1D365}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="0" windowWidth="31660" windowHeight="13580" xr2:uid="{6EC7040E-D947-6E4B-98A1-8DE1D2C882F1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="158">
   <si>
     <t>site_code</t>
   </si>
@@ -493,6 +493,12 @@
   </si>
   <si>
     <t>does not have colon between hour and minutes</t>
+  </si>
+  <si>
+    <t>coordinates are E</t>
+  </si>
+  <si>
+    <t>coordinates are N</t>
   </si>
 </sst>
 </file>
@@ -864,7 +870,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -948,6 +954,9 @@
       <c r="D4" t="s">
         <v>81</v>
       </c>
+      <c r="E4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -961,6 +970,9 @@
       </c>
       <c r="D5" t="s">
         <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
